--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Downloads/Ratings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D50AFDEA-2043-8E45-B4C2-E864CCB6FDDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{66F9C483-9216-454A-B2EA-5BDC34E9F26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="28040" windowHeight="16340" xr2:uid="{BC7D4D41-0E30-EA4E-A474-F9BB5A72B2FC}"/>
+    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>RatingBlock</t>
   </si>
@@ -43,15 +43,6 @@
   </si>
   <si>
     <t>TrialCondition_B.xslx</t>
-  </si>
-  <si>
-    <t>TrialCondition_C.xslx</t>
-  </si>
-  <si>
-    <t>TrialCondition_D.xslx</t>
-  </si>
-  <si>
-    <t>TrialCondition_E.xslx</t>
   </si>
 </sst>
 </file>
@@ -68,7 +59,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
@@ -409,16 +400,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E99990E-3C2D-6743-817F-D109C2A6F116}">
-  <dimension ref="A1:A6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB48B7B-7EAA-E04C-B40E-BE008C743D38}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.1640625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
@@ -436,21 +427,6 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{66F9C483-9216-454A-B2EA-5BDC34E9F26B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C4DB8D-3E23-6A46-86C3-FF94674E0831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15800" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
+    <workbookView xWindow="780" yWindow="980" windowWidth="27640" windowHeight="15800" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,10 +39,10 @@
     <t>RatingBlock</t>
   </si>
   <si>
-    <t>TrialCondition_A.xslx</t>
+    <t>TrialCondition_A.xlsx</t>
   </si>
   <si>
-    <t>TrialCondition_B.xslx</t>
+    <t>TrialCondition_B.xlsx</t>
   </si>
 </sst>
 </file>
@@ -404,7 +404,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C4DB8D-3E23-6A46-86C3-FF94674E0831}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424CDEBE-B6AF-4F44-8CD9-A485D017B565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="980" windowWidth="27640" windowHeight="15800" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>RatingBlock</t>
   </si>
@@ -43,6 +43,18 @@
   </si>
   <si>
     <t>TrialCondition_B.xlsx</t>
+  </si>
+  <si>
+    <t>TrialCondition_C.xlsx</t>
+  </si>
+  <si>
+    <t>TrialCondition_D.xlsx</t>
+  </si>
+  <si>
+    <t>TrialCondition_E.xlsx</t>
+  </si>
+  <si>
+    <t>TrialCondition_F.xlsx</t>
   </si>
 </sst>
 </file>
@@ -401,10 +413,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB48B7B-7EAA-E04C-B40E-BE008C743D38}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -427,6 +439,26 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424CDEBE-B6AF-4F44-8CD9-A485D017B565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5FFB4C-2C73-D342-98FC-F9FC70C378FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="980" windowWidth="27640" windowHeight="15800" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>RatingBlock</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>TrialCondition_E.xlsx</t>
-  </si>
-  <si>
-    <t>TrialCondition_F.xlsx</t>
   </si>
 </sst>
 </file>
@@ -455,9 +452,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kelsielau/Ratings/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/Face Attractiveness rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5FFB4C-2C73-D342-98FC-F9FC70C378FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF967C48-F3D0-104E-ACE4-E1C2E25AD48C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="980" windowWidth="27640" windowHeight="15800" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>RatingBlock</t>
   </si>
@@ -52,6 +51,9 @@
   </si>
   <si>
     <t>TrialCondition_E.xlsx</t>
+  </si>
+  <si>
+    <t>TrialCondition_F.xlsx</t>
   </si>
 </sst>
 </file>
@@ -452,7 +454,9 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/Face Attractiveness rating/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF967C48-F3D0-104E-ACE4-E1C2E25AD48C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BDC693-B330-0148-A96A-38220738C69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>RatingBlock</t>
   </si>
@@ -42,15 +42,6 @@
   </si>
   <si>
     <t>TrialCondition_B.xlsx</t>
-  </si>
-  <si>
-    <t>TrialCondition_C.xlsx</t>
-  </si>
-  <si>
-    <t>TrialCondition_D.xlsx</t>
-  </si>
-  <si>
-    <t>TrialCondition_E.xlsx</t>
   </si>
   <si>
     <t>TrialCondition_F.xlsx</t>
@@ -412,10 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB48B7B-7EAA-E04C-B40E-BE008C743D38}">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -444,19 +435,10 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="A5" s="1"/>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01BDC693-B330-0148-A96A-38220738C69B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8A498B-EBF4-F348-896E-252FCB063F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>RatingBlock</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>TrialCondition_F.xlsx</t>
+  </si>
+  <si>
+    <t>TrialCondition_C.xlsx</t>
+  </si>
+  <si>
+    <t>TrialCondition_D.xlsx</t>
+  </si>
+  <si>
+    <t>TrialCondition_E.xlsx</t>
   </si>
 </sst>
 </file>
@@ -403,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB48B7B-7EAA-E04C-B40E-BE008C743D38}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -431,14 +440,29 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1"/>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F8A498B-EBF4-F348-896E-252FCB063F2D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58E5883-8F56-844A-991B-3D0147E3E008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>RatingBlock</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>TrialCondition_B.xlsx</t>
-  </si>
-  <si>
-    <t>TrialCondition_F.xlsx</t>
   </si>
   <si>
     <t>TrialCondition_C.xlsx</t>
@@ -415,7 +412,7 @@
   <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -440,23 +437,21 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A58E5883-8F56-844A-991B-3D0147E3E008}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF0463F-0FAF-1640-9FE1-6B2F9E34A615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>RatingBlock</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>TrialCondition_E.xlsx</t>
+  </si>
+  <si>
+    <t>TrialCondition_F.xlsx</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,9 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFF0463F-0FAF-1640-9FE1-6B2F9E34A615}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B8D4A-7371-E844-AC5C-871438127117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>RatingBlock</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>TrialCondition_E.xlsx</t>
-  </si>
-  <si>
-    <t>TrialCondition_F.xlsx</t>
   </si>
 </sst>
 </file>
@@ -454,9 +451,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
+      <c r="A7" s="1"/>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A1B8D4A-7371-E844-AC5C-871438127117}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB061D3-40ED-9F4D-9423-3E4205474C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>RatingBlock</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>TrialCondition_E.xlsx</t>
+  </si>
+  <si>
+    <t>TrialCondition_F.xlsx</t>
   </si>
 </sst>
 </file>
@@ -451,7 +454,9 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uzhmanagani/Desktop/4D09/Thesis/PsychoPy/Face Attractiveness Rating/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naiqixiao/Desktop/face-attractiveness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCB061D3-40ED-9F4D-9423-3E4205474C19}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467CF173-DDF1-A149-AF8A-57866D53F41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="27640" windowHeight="15640" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
+    <workbookView xWindow="10760" yWindow="3160" windowWidth="27640" windowHeight="15640" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,46 +33,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>RatingBlock</t>
-  </si>
-  <si>
-    <t>TrialCondition_A.xlsx</t>
-  </si>
-  <si>
-    <t>TrialCondition_B.xlsx</t>
-  </si>
-  <si>
-    <t>TrialCondition_C.xlsx</t>
-  </si>
-  <si>
-    <t>TrialCondition_D.xlsx</t>
-  </si>
-  <si>
-    <t>TrialCondition_E.xlsx</t>
-  </si>
-  <si>
-    <t>TrialCondition_F.xlsx</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>Attractiveness</t>
+  </si>
+  <si>
+    <t>LeftLabel</t>
+  </si>
+  <si>
+    <t>RightLabel</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Happy</t>
+  </si>
+  <si>
+    <t>Sad</t>
+  </si>
+  <si>
+    <t>Attractive</t>
+  </si>
+  <si>
+    <t>Unattractive</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,9 +104,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,57 +420,61 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB48B7B-7EAA-E04C-B40E-BE008C743D38}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naiqixiao/Desktop/face-attractiveness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467CF173-DDF1-A149-AF8A-57866D53F41C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1A9D15-4B30-8340-AED4-EB96EBB83300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10760" yWindow="3160" windowWidth="27640" windowHeight="15640" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
@@ -38,37 +38,37 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Attractiveness</t>
-  </si>
-  <si>
     <t>LeftLabel</t>
   </si>
   <si>
     <t>RightLabel</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Happy</t>
-  </si>
-  <si>
-    <t>Sad</t>
-  </si>
-  <si>
-    <t>Attractive</t>
-  </si>
-  <si>
-    <t>Unattractive</t>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>表情</t>
+  </si>
+  <si>
+    <t>吸引力</t>
+  </si>
+  <si>
+    <t>男性</t>
+  </si>
+  <si>
+    <t>女性</t>
+  </si>
+  <si>
+    <t>快乐</t>
+  </si>
+  <si>
+    <t>悲伤</t>
+  </si>
+  <si>
+    <t>非常有吸引力</t>
+  </si>
+  <si>
+    <t>毫无吸引力</t>
   </si>
 </sst>
 </file>
@@ -423,13 +423,13 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="2" max="3" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -437,15 +437,15 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
@@ -456,7 +456,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -467,7 +467,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>

--- a/Rating_BlockOrder.xlsx
+++ b/Rating_BlockOrder.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10419"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/naiqixiao/Desktop/face-attractiveness/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1A9D15-4B30-8340-AED4-EB96EBB83300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84C9EA9-8C27-7344-8C26-630CF0D156AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="10760" yWindow="3160" windowWidth="27640" windowHeight="15640" xr2:uid="{930A44AD-3E3D-CE45-9183-F4418BA56B34}"/>
   </bookViews>
@@ -59,16 +59,16 @@
     <t>女性</t>
   </si>
   <si>
-    <t>快乐</t>
-  </si>
-  <si>
-    <t>悲伤</t>
-  </si>
-  <si>
     <t>非常有吸引力</t>
   </si>
   <si>
     <t>毫无吸引力</t>
+  </si>
+  <si>
+    <t>正性情绪</t>
+  </si>
+  <si>
+    <t>负性情绪</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -459,10 +459,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -470,10 +470,10 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
